--- a/过程性文件/data/第一问数据/亚类划分结果/划分结果（归一化）（风化后）.xlsx
+++ b/过程性文件/data/第一问数据/亚类划分结果/划分结果（归一化）（风化后）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="高钾分类" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="铅钡分类" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="高钾分类" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="铅钡分类" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
